--- a/UseCases.xlsx
+++ b/UseCases.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Use Case 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Use Case 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Use Case 3" sheetId="6" r:id="rId3"/>
+    <sheet name="Use Case 4" sheetId="3" r:id="rId4"/>
+    <sheet name="Use Case 5" sheetId="4" r:id="rId5"/>
+    <sheet name="Use Case 6" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>Primary Actor(s):</t>
   </si>
@@ -33,15 +35,9 @@
     <t>Brief Description:</t>
   </si>
   <si>
-    <t>Performance:</t>
-  </si>
-  <si>
     <t>Normal Flow of Events:</t>
   </si>
   <si>
-    <t>Alternative Flow of Events:</t>
-  </si>
-  <si>
     <t>Assumptions/Issues/Questions/Notes:</t>
   </si>
   <si>
@@ -51,9 +47,6 @@
     <t xml:space="preserve">     Post-Conditions:</t>
   </si>
   <si>
-    <t xml:space="preserve">     Scenarios:</t>
-  </si>
-  <si>
     <t>Submitter</t>
   </si>
   <si>
@@ -69,9 +62,6 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>Submitter enters the system with the intent of reporting an issue</t>
-  </si>
-  <si>
     <t>Enter New Issue</t>
   </si>
   <si>
@@ -93,14 +83,6 @@
     <t>Clicking the Submit button on the new issue form takes the user to the issue details screen</t>
   </si>
   <si>
-    <t xml:space="preserve">If the submitter does not put in all of the required information they will get an error message that they need </t>
-  </si>
-  <si>
-    <t>*Submitter enters information correctly
-*Submitter does not enter all required information
-*Submitter exits the form before entering any information</t>
-  </si>
-  <si>
     <t>2.0.0</t>
   </si>
   <si>
@@ -122,12 +104,6 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>The issue information should be saved to the database</t>
-  </si>
-  <si>
-    <t>All entered information should be saved to the database</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Analyst needs to know the issue number to be able to locate the exact issue they are working on. </t>
   </si>
   <si>
@@ -138,6 +114,114 @@
   </si>
   <si>
     <t>Pushing the close button takes the user back to the main screen.</t>
+  </si>
+  <si>
+    <t>Print Reports</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>One of the report functions are clicked from the main menu</t>
+  </si>
+  <si>
+    <t>Close Issue</t>
+  </si>
+  <si>
+    <t>ReOpen Issue</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>Update Issue with Testing information</t>
+  </si>
+  <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
+    <t>QA Analyst opens issue to enter testing details</t>
+  </si>
+  <si>
+    <t>QA Analyst</t>
+  </si>
+  <si>
+    <t>Submitter enters system with the intent of reporting an issue</t>
+  </si>
+  <si>
+    <t>Analysis and development are done in separate systems. This is just for tracking the results of analysis and development</t>
+  </si>
+  <si>
+    <t>Managers</t>
+  </si>
+  <si>
+    <t>QA Analysts</t>
+  </si>
+  <si>
+    <t>Reports about open issues and individual reports about issues need to be printed out of the system.</t>
+  </si>
+  <si>
+    <t>Manager logs into the system to generate report. They choose between report of all issues or report for individual issue</t>
+  </si>
+  <si>
+    <t>For individual report, the Manager must have the issue number</t>
+  </si>
+  <si>
+    <t>The report is displayed on the screen and the manager has the option to print it out</t>
+  </si>
+  <si>
+    <t>The MS Access database software can print generated reports</t>
+  </si>
+  <si>
+    <t>The QA Analyst must be able to use the system to make edits to the testing information in the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developers have proposed a solution to the issue. </t>
+  </si>
+  <si>
+    <t>QA Analyst opens issue to enter testing results into the system. Once the all test have been passed, the analyst can click the checkbox</t>
+  </si>
+  <si>
+    <t>Test has been verified as successful and the issues has been marked accordingly.</t>
+  </si>
+  <si>
+    <t>Test are maintained, administered and run through external systems.</t>
+  </si>
+  <si>
+    <t>The QA Analyst goes into the system to close an issue because it has been resolved</t>
+  </si>
+  <si>
+    <t>Submitter, Manager</t>
+  </si>
+  <si>
+    <t>The issue gets marked as closed after development and  testing have been verified</t>
+  </si>
+  <si>
+    <t>After the solution to the issue has been tested and verified the QA Analyst will add any additional comments to the descriptions and mark the case as closed</t>
+  </si>
+  <si>
+    <t>Test has been perfromed and the solution has been verified to solve the issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The issue has been closed </t>
+  </si>
+  <si>
+    <t>Issue is resubmitted after it is closed because the original issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submitter, </t>
+  </si>
+  <si>
+    <t>An issue that was originally entered into the system has been identified as still being an issue</t>
+  </si>
+  <si>
+    <t>The analyst opens the issueand edits the status changing it to reioened</t>
+  </si>
+  <si>
+    <t>Issue has been previously closed but it has been realized that the issue still remained</t>
   </si>
 </sst>
 </file>
@@ -299,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -321,8 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -360,6 +442,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -634,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,146 +739,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="12">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="13">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11">
         <v>41924</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11">
         <v>41928</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>19</v>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3"/>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32.25" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="47.25" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>35</v>
+      <c r="B14" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -792,143 +865,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="20">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="21">
+        <v>10</v>
+      </c>
+      <c r="B4" s="19">
         <v>41928</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="21">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19">
         <v>41928</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>30</v>
+      <c r="B7" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>31</v>
+      <c r="B8" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>27</v>
+      <c r="B9" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7"/>
-      <c r="B10" s="19"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>33</v>
+      <c r="B11" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="19"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="19"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="22"/>
+      <c r="B14" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -937,117 +992,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="19">
+        <v>41928</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="19">
+        <v>41929</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="17" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30.75" thickBot="1">
+      <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="10"/>
+      <c r="B14" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,117 +1119,373 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="24">
+        <v>41927</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="24">
+        <v>41928</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="23" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B14" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="19">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="19">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="B6" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="8" t="s">
+      <c r="B12" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
